--- a/output_additional_column/1957.xlsx
+++ b/output_additional_column/1957.xlsx
@@ -490,7 +490,7 @@
         <v>58138</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>21994</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>65486</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>50388</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="6">
@@ -584,7 +584,7 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="7">
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +630,7 @@
         <v>26091</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="9">
@@ -654,7 +654,7 @@
         <v>40737</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="10">
@@ -678,7 +678,7 @@
         <v>62187</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="11">
@@ -702,7 +702,7 @@
         <v>71113</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="12">
@@ -726,7 +726,7 @@
         <v>78618</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="13">
@@ -750,7 +750,7 @@
         <v>6835</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="14">
@@ -774,7 +774,7 @@
         <v>82017</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="15">
@@ -798,7 +798,7 @@
         <v>55267</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="16">
@@ -822,7 +822,7 @@
         <v>82347</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="17">
@@ -846,7 +846,7 @@
         <v>54237</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="18">
@@ -870,7 +870,7 @@
         <v>26091</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="19">
@@ -894,7 +894,7 @@
         <v>66726</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="20">
@@ -918,7 +918,7 @@
         <v>43140</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="21">
@@ -942,7 +942,7 @@
         <v>66636</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="22">
@@ -966,7 +966,7 @@
         <v>40451</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="23">
@@ -990,7 +990,7 @@
         <v>42213</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1014,7 @@
         <v>77297</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="25">
@@ -1038,7 +1038,7 @@
         <v>37633</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="26">
@@ -1062,7 +1062,7 @@
         <v>36864</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="27">
@@ -1086,7 +1086,7 @@
         <v>52852</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="28">
@@ -1110,7 +1110,7 @@
         <v>66033</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="29">
@@ -1134,7 +1134,7 @@
         <v>75283</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="30">
@@ -1158,7 +1158,7 @@
         <v>41437</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="31">
@@ -1182,7 +1182,7 @@
         <v>47743</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="32">
@@ -1206,7 +1206,7 @@
         <v>68148</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="33">
@@ -1230,7 +1230,7 @@
         <v>44155</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="34">
@@ -1254,7 +1254,7 @@
         <v>64849</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="35">
@@ -1278,7 +1278,7 @@
         <v>21994</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="36">
@@ -1302,7 +1302,7 @@
         <v>50116</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="37">
@@ -1326,7 +1326,7 @@
         <v>65487</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="38">
@@ -1350,7 +1350,7 @@
         <v>23539</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="39">
@@ -1374,7 +1374,7 @@
         <v>78499</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="40">
@@ -1398,7 +1398,7 @@
         <v>47320</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="41">
@@ -1422,7 +1422,7 @@
         <v>53233</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="42">
@@ -1446,7 +1446,7 @@
         <v>65487</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="43">
@@ -1470,7 +1470,7 @@
         <v>82347</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
     <row r="44">
@@ -1494,7 +1494,7 @@
         <v>73803</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44703.76710888393</v>
+        <v>44703.79032812023</v>
       </c>
     </row>
   </sheetData>
